--- a/Vasklister/Excel/vaskeliste_v4.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v4.0.xlsx
@@ -115,10 +115,10 @@
     <t>1470 LØRENSKOG_x000D_</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Sender Sak til Manuelll Behandling267794</t>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -154,8 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,12 +603,16 @@
       <c r="S2" t="s">
         <v>32</v>
       </c>
+      <c r="T2">
+        <v>123</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
       <c r="AA2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" t="s">
         <v>34</v>
       </c>
+      <c r="AB2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vasklister/Excel/vaskeliste_v4.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v4.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>AG</t>
+  </si>
+  <si>
+    <t>Kommune_Nr</t>
   </si>
   <si>
     <t>OK</t>
@@ -460,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AD3" sqref="AD3"/>
@@ -468,7 +471,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,85 +479,88 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13088334935</v>
       </c>
@@ -562,24 +568,24 @@
         <v>267794</v>
       </c>
       <c r="C2">
+        <v>11111</v>
+      </c>
+      <c r="D2">
         <v>13088334935</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2">
+      <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2">
@@ -588,31 +594,34 @@
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>984661185</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>123</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vasklister/Excel/vaskeliste_v4.0.xlsx
+++ b/Vasklister/Excel/vaskeliste_v4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28380" windowHeight="14310"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19200" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -100,28 +100,7 @@
     <t>_4_Message</t>
   </si>
   <si>
-    <t>8 333,33</t>
-  </si>
-  <si>
-    <t>FJELLHAMAR</t>
-  </si>
-  <si>
-    <t>POSTEN NORGE AS</t>
-  </si>
-  <si>
-    <t>Lørenskogveien 50_x000D_</t>
-  </si>
-  <si>
-    <t>1470 LØRENSKOG_x000D_</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
     <t>Kommune_Nr</t>
-  </si>
-  <si>
-    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -159,9 +138,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,158 +440,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>13088334935</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>7100</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2">
-        <v>984661185</v>
-      </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2">
-        <v>123</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>